--- a/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.600370849288642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.978645491012328</v>
+        <v>3.978645491012334</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.542334013408053</v>
@@ -664,7 +664,7 @@
         <v>-0.433128757784812</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>8.983930979229404</v>
+        <v>8.983930979229399</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.20474310628536</v>
+        <v>-11.4726718758743</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.30153523857971</v>
+        <v>-10.90393008111769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.213531715355439</v>
+        <v>-3.215173021945098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.131599101009423</v>
+        <v>-6.693264871687902</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.673641053727491</v>
+        <v>-5.918303946739776</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.198321277534726</v>
+        <v>6.920279499281233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.575306135301677</v>
+        <v>-6.816352550877755</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.820968898179489</v>
+        <v>-5.773012672009444</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.961099972304857</v>
+        <v>3.833192466963733</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.615707137992923</v>
+        <v>3.421992239303918</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.207794160027971</v>
+        <v>3.554250688091499</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.96804283852693</v>
+        <v>11.44232871666951</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.15828344724877</v>
+        <v>9.996738430731654</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.39866340457054</v>
+        <v>11.72243609196481</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.23486505714513</v>
+        <v>21.27097487633958</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.185911099318462</v>
+        <v>4.370762028559422</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.316597327697384</v>
+        <v>5.371145528677678</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.31414374485141</v>
+        <v>14.02942716170781</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1486463898113102</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1642639920537299</v>
+        <v>0.1642639920537301</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.04386822401613353</v>
@@ -769,7 +769,7 @@
         <v>-0.01465004758949524</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3038704173317455</v>
+        <v>0.3038704173317454</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3933940799572154</v>
+        <v>-0.3932803667449178</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3938418172662274</v>
+        <v>-0.3876929003695421</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1368401658409905</v>
+        <v>-0.1248054406015778</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1878430790757253</v>
+        <v>-0.1739528543746202</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1431877628553054</v>
+        <v>-0.1516187514937608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1483344473188825</v>
+        <v>0.175917034561306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2274226299882761</v>
+        <v>-0.2050057203055638</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1796616740962687</v>
+        <v>-0.1743250103727493</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1154844212375003</v>
+        <v>0.1132055578923324</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1888888763132397</v>
+        <v>0.1784014030801509</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1697528524229227</v>
+        <v>0.1851120969953454</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5505206343630509</v>
+        <v>0.5493926858231609</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3305649066106666</v>
+        <v>0.3360915963234411</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.369994552015236</v>
+        <v>0.376048052105826</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6805048591579783</v>
+        <v>0.7047626006386014</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1538834916100724</v>
+        <v>0.1630413864739832</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1945250246565207</v>
+        <v>0.1962685507373171</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5316711642800162</v>
+        <v>0.5211974161000709</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-14.42553815163313</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.757284038929619</v>
+        <v>-2.757284038929625</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.67336444469297</v>
+        <v>-12.61415361123655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.78565091584541</v>
+        <v>-13.50213784694677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.906801234716621</v>
+        <v>-3.736631320160432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-18.06277914212038</v>
+        <v>-18.83606931608487</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-26.09828982904581</v>
+        <v>-26.14499472182336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.64381221598216</v>
+        <v>-13.06531814849181</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-14.09204837366949</v>
+        <v>-14.27021995133708</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-18.43689196919785</v>
+        <v>-18.01100049926513</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.997339326888212</v>
+        <v>-6.430416822514492</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.49830919904889</v>
+        <v>-2.499085800661286</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.050896414889793</v>
+        <v>-3.784920252301378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.624979217816184</v>
+        <v>7.631737143977448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-6.426323623141163</v>
+        <v>-7.332042282381959</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-14.50643730231534</v>
+        <v>-14.67355466084534</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.252556296865912</v>
+        <v>-2.163546474354272</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-6.465811909291709</v>
+        <v>-6.370794812417621</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-10.56692934883689</v>
+        <v>-10.26719864428577</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.292945521625389</v>
+        <v>1.316286419547729</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.4526185025627237</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.08651308254306869</v>
+        <v>-0.08651308254306886</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5135850324571406</v>
+        <v>-0.5144280147221808</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5556827127473025</v>
+        <v>-0.5553251043218846</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1623431371176939</v>
+        <v>-0.1512212033274777</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.407407986373218</v>
+        <v>-0.4162091481544812</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5752634842477018</v>
+        <v>-0.5813022092770928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3014166442240816</v>
+        <v>-0.2852363319533768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4207749679894514</v>
+        <v>-0.4148692032462108</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5397951894610087</v>
+        <v>-0.5363084290897273</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2045419981773475</v>
+        <v>-0.1919738964716851</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1209135771260953</v>
+        <v>-0.1274290935118961</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2022769055484759</v>
+        <v>-0.1889371970357963</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3915135797864912</v>
+        <v>0.388917880107418</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1623640355881339</v>
+        <v>-0.183104311807987</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3595473168615153</v>
+        <v>-0.3653721383533296</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05600151577805372</v>
+        <v>-0.05494366281274658</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2142493260352112</v>
+        <v>-0.2086860596463603</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3526244303138822</v>
+        <v>-0.3468380187531575</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.04549194047700594</v>
+        <v>0.04470987727208989</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-4.21581361870364</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>10.05037280714896</v>
+        <v>10.05037280714897</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.167659286757691</v>
@@ -1092,7 +1092,7 @@
         <v>-2.02742423938761</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>15.18367906419831</v>
+        <v>15.1836790641983</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.21234426255121</v>
+        <v>-2.575375104118372</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.508075418861002</v>
+        <v>-4.814887077822275</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14.28370008190953</v>
+        <v>14.5300760229331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.117633555847636</v>
+        <v>-7.543311359983283</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.09133744723986</v>
+        <v>-10.89268670911273</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.818693699395646</v>
+        <v>3.96648182790322</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.643657521806237</v>
+        <v>-3.159134181236155</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.181100077045802</v>
+        <v>-6.209674379599825</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>10.39345282622011</v>
+        <v>10.8797354702632</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.806589199661955</v>
+        <v>9.132236876149328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.50145438095337</v>
+        <v>5.583282605836211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27.07683172224598</v>
+        <v>26.57205557581447</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.064045036602556</v>
+        <v>6.686470668129715</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.730744167971064</v>
+        <v>3.024194334242993</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.29661252773801</v>
+        <v>16.83340408463561</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.381765850245491</v>
+        <v>5.607878879674338</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.96089647490443</v>
+        <v>2.542243342593803</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.1467938256785</v>
+        <v>19.77891805417307</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.0224331292612679</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.57927627803537</v>
+        <v>1.579276278035369</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01968622659165851</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1569103391170184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3740695267992262</v>
+        <v>0.3740695267992264</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05812943869737719</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1009310116175311</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7558872278691713</v>
+        <v>0.7558872278691711</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1592719669538856</v>
+        <v>-0.1927029214331262</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3458521298683653</v>
+        <v>-0.3079092863648353</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9268440413200264</v>
+        <v>0.8998635299734296</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2362688276636439</v>
+        <v>-0.2501557145351984</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3733883970962904</v>
+        <v>-0.3615328448455888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1247063785600717</v>
+        <v>0.122266788202251</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1661728100936341</v>
+        <v>-0.1462199308321664</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2812867644480292</v>
+        <v>-0.278703213498539</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.453422219078272</v>
+        <v>0.4796521651904635</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8337897278116002</v>
+        <v>0.8599214433934176</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.533134212248355</v>
+        <v>0.516599529348539</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.69987114435331</v>
+        <v>2.54175870119489</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2561299493530353</v>
+        <v>0.282982490728584</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1137952961133039</v>
+        <v>0.1370269997751929</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7119501009464089</v>
+        <v>0.7210505529230318</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2962936248927858</v>
+        <v>0.3024786991881059</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1123714218045947</v>
+        <v>0.1408809671396782</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.073375322013449</v>
+        <v>1.111003915742132</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.26261212257509</v>
+        <v>-9.857482914671538</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.595644267121308</v>
+        <v>-4.357954290234757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.313038441556102</v>
+        <v>1.500241565276518</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.555929493959699</v>
+        <v>-6.482867383616524</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.857792620206245</v>
+        <v>-4.437717448182064</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.253371320726859</v>
+        <v>2.163831095904955</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.462544921794018</v>
+        <v>-6.638267576497283</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.157832688831079</v>
+        <v>-2.83413462912453</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.287744859699313</v>
+        <v>4.220626388414784</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.139458072920658</v>
+        <v>1.782203820410072</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.079157332814042</v>
+        <v>7.276394057143134</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.3855621240138</v>
+        <v>15.65726279513319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.409045286846651</v>
+        <v>6.87843461458303</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.674887265070042</v>
+        <v>9.577311472730996</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.31217521038626</v>
+        <v>14.87679902275047</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.317820476905554</v>
+        <v>2.400570321189895</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.417396793471475</v>
+        <v>6.945033498390944</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.87656809013984</v>
+        <v>14.00414387848192</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4270316450402439</v>
+        <v>-0.4174290284318065</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2008046302075898</v>
+        <v>-0.1838992382582626</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05549085607552577</v>
+        <v>0.06312713904597526</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1705030152589346</v>
+        <v>-0.1745195883077054</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1249893030383827</v>
+        <v>-0.1207992773652877</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05604807114651422</v>
+        <v>0.05802013941404942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2151581462733408</v>
+        <v>-0.2152450397584777</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1012874150940493</v>
+        <v>-0.08999669086797538</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.145005992909859</v>
+        <v>0.1390019331464411</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07414567066416783</v>
+        <v>0.1113276011082262</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3950753306384004</v>
+        <v>0.4208420984681711</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8409820136440982</v>
+        <v>0.8638534616758365</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2032682568438384</v>
+        <v>0.2143288657508249</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3093323357202379</v>
+        <v>0.3001111963726965</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4841429859947834</v>
+        <v>0.4819590480621867</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09114915032429224</v>
+        <v>0.09472452135295607</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2493348744859381</v>
+        <v>0.2679853707479256</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.541787946882148</v>
+        <v>0.541751173716665</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>6.250061541914103</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.814826954624932</v>
+        <v>8.814826954624916</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>15.02605104562474</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3654330225176723</v>
+        <v>-0.4577449417121191</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7748371245276156</v>
+        <v>-0.002698207223311122</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5045823432351155</v>
+        <v>0.5670473091063386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.80408203665536</v>
+        <v>14.69044165135277</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.430065571068999</v>
+        <v>-2.244872690904275</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.273732458217277</v>
+        <v>1.700310872320924</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.918324775027195</v>
+        <v>9.149004085648103</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.124364634901075</v>
+        <v>0.06371512039320615</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.092038977394552</v>
+        <v>3.053598205698948</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.60991435042456</v>
+        <v>14.65049664431283</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.29935444852621</v>
+        <v>14.85228838662985</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.09814224091864</v>
+        <v>14.22267382719756</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32.58452074704817</v>
+        <v>33.09590695903137</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.59937723200821</v>
+        <v>14.6426062257235</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>16.01635317757592</v>
+        <v>15.56276267764088</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>21.21370891912332</v>
+        <v>21.42388668258025</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.41889148720581</v>
+        <v>12.57176197786707</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.94032221545591</v>
+        <v>13.02157872033729</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.272005275283781</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.383624931737448</v>
+        <v>0.3836249317374473</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.7856480180146724</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02174033573097404</v>
+        <v>-0.03110061330012782</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05297090572045036</v>
+        <v>-0.03414509995309642</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.01028052603958122</v>
+        <v>0.03199134728761334</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4705682461465022</v>
+        <v>0.5340432064956868</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.09051935075797617</v>
+        <v>-0.08481104361634342</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04617216325060158</v>
+        <v>0.05170117276915172</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3828366089141276</v>
+        <v>0.4024076777272792</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05025919991824948</v>
+        <v>0.007249379781445435</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1370012944494654</v>
+        <v>0.1399890030765405</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.392284026685499</v>
+        <v>1.238068266820604</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.19788155453408</v>
+        <v>1.186669330833298</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.212051081619445</v>
+        <v>1.229022609939304</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.748529385644409</v>
+        <v>1.862965177239676</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7948984644201322</v>
+        <v>0.7800538900757594</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8951692279818554</v>
+        <v>0.8421513021201765</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.251053877188783</v>
+        <v>1.292055737283767</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7532392087803873</v>
+        <v>0.7862663936562765</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8008014866662707</v>
+        <v>0.801532253836358</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.308558031937657</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>25.20296898154404</v>
+        <v>25.20296898154402</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.489419767839915</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.180932377551847</v>
+        <v>-1.584843124123025</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.022081537393695</v>
+        <v>-4.271233047429444</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17.26105103744404</v>
+        <v>16.97403445212228</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.086286843968798</v>
+        <v>-7.8936671179847</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.581413284115362</v>
+        <v>-6.857099685609609</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>17.42978826548297</v>
+        <v>17.66566380976682</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.319696776088033</v>
+        <v>-2.326036347535374</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.233351241823543</v>
+        <v>-3.195838231362937</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>19.73372442188456</v>
+        <v>19.91779879275059</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.72893534613935</v>
+        <v>12.62075566699053</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.12023929622657</v>
+        <v>9.296872039586717</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31.011309073573</v>
+        <v>31.52304049306226</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.591311235279804</v>
+        <v>6.932752853535888</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.344216245725537</v>
+        <v>8.389268868256311</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>31.91248566566264</v>
+        <v>32.45711247556503</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.475821033674272</v>
+        <v>7.467212169174796</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.144137472562649</v>
+        <v>7.171389899388676</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>29.96700156361107</v>
+        <v>29.87071343532649</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.04429839216140099</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8531918159738549</v>
+        <v>0.8531918159738541</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1019816944180251</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.05435895353789509</v>
+        <v>-0.07679636844492647</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1894778370471224</v>
+        <v>-0.1941196720560516</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.7596395405276978</v>
+        <v>0.7435041608757034</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.248333578248185</v>
+        <v>-0.2450022196217793</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1981510627018722</v>
+        <v>-0.2062549287024873</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5160463975844171</v>
+        <v>0.5076024358233577</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1214210976740606</v>
+        <v>-0.08620396349771921</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1210328923630155</v>
+        <v>-0.123826618460428</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.7248560504471823</v>
+        <v>0.7297742462034675</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7622617906182599</v>
+        <v>0.7787669657154844</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6555012617066714</v>
+        <v>0.5715234424212553</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.937920694434826</v>
+        <v>2.021511145931589</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2571995433622571</v>
+        <v>0.2773520010791673</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3661425061698773</v>
+        <v>0.3249008797985602</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.286588448353977</v>
+        <v>1.297548048200253</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3445514967899344</v>
+        <v>0.3456203952204653</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3300033426372596</v>
+        <v>0.3229582271695212</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.395709630399807</v>
+        <v>1.404376160033755</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>10.73906663097122</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>14.60058847410829</v>
+        <v>14.60058847410828</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.765000288590928</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.219070280681731</v>
+        <v>-2.805275222766631</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>4.424613907243162</v>
+        <v>4.677217527957776</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8.406165470524753</v>
+        <v>8.002341993979028</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.26667700673108</v>
+        <v>1.583594237254205</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.71989032039958</v>
+        <v>6.654436858426862</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.0841078738911</v>
+        <v>10.0669752714887</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.6888574239690821</v>
+        <v>0.8557170939703734</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>6.553906710990153</v>
+        <v>6.33492432662852</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.87440628565475</v>
+        <v>10.70702719655274</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.852294839978964</v>
+        <v>4.849426874259363</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.02802383487544</v>
+        <v>13.36843953338261</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.50053999111256</v>
+        <v>17.75080062707922</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.72637690393079</v>
+        <v>11.20716400895587</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.1407611889368</v>
+        <v>15.48731149325529</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>18.76042276381623</v>
+        <v>18.83241344426213</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.055134917359196</v>
+        <v>6.819958623860487</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.05088615769851</v>
+        <v>13.16761156690098</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>16.85375817746279</v>
+        <v>17.11403119752549</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.5215785488102976</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7091262220255955</v>
+        <v>0.7091262220255953</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2169815102294536</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1997795831188718</v>
+        <v>-0.1866870154549222</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2804338239199276</v>
+        <v>0.2810700196414921</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5013935309320989</v>
+        <v>0.4821052434590559</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.05687812705384583</v>
+        <v>0.06762506454809845</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2502819624568855</v>
+        <v>0.2844626655063318</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4312692562547459</v>
+        <v>0.433324420479393</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03557823199005053</v>
+        <v>0.04394234329145525</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3442433097512709</v>
+        <v>0.3356607471439576</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5827153540767048</v>
+        <v>0.5693466022882195</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3970808473866431</v>
+        <v>0.3987472963208553</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.083755336704794</v>
+        <v>1.120449249739837</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.436181472312793</v>
+        <v>1.478517498045064</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5826099027105525</v>
+        <v>0.6085651019229006</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.832898806933282</v>
+        <v>0.8354500392501311</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.039318837438477</v>
+        <v>1.037551664181107</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4489799979635182</v>
+        <v>0.4247018149619521</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8244642939919167</v>
+        <v>0.8318492160214678</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.057904184921856</v>
+        <v>1.084093199128099</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-2.544780977226735</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.3623663376716851</v>
+        <v>-0.3623663376716796</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>5.852272737327824</v>
@@ -2153,7 +2153,7 @@
         <v>-0.1392500964379095</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.006592139167124</v>
+        <v>3.00659213916713</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>5.729777357174981</v>
@@ -2162,7 +2162,7 @@
         <v>-1.291612472782774</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.333912333831797</v>
+        <v>1.333912333831794</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.487254263603096</v>
+        <v>0.9385453126873678</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.336517662150992</v>
+        <v>-6.1652503970263</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.209127053226747</v>
+        <v>-4.316017785305064</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.145045733975083</v>
+        <v>1.325709220677002</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.644537393775872</v>
+        <v>-4.535485141213409</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.060379906458501</v>
+        <v>-1.492562546218045</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.208249025573966</v>
+        <v>2.540968119265431</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.293257842770505</v>
+        <v>-4.461819193605661</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.776979206208236</v>
+        <v>-1.542109867484538</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.680814114678565</v>
+        <v>9.675781331865197</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.112148627454223</v>
+        <v>1.147925058552728</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.217006597891531</v>
+        <v>3.51011637039471</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>10.27157999927926</v>
+        <v>10.37588489260939</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.096942960653424</v>
+        <v>4.170608782842157</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.159027371939356</v>
+        <v>7.193231005609688</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>9.08868538619609</v>
+        <v>9.089865871331915</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.84427233749853</v>
+        <v>1.541391835582723</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.164838625935877</v>
+        <v>4.224809559871749</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1380161364028276</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.0196529297945284</v>
+        <v>-0.0196529297945281</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2249476543536848</v>
@@ -2258,7 +2258,7 @@
         <v>-0.005352447496583154</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1155663585174408</v>
+        <v>0.1155663585174411</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2566443746236978</v>
@@ -2267,7 +2267,7 @@
         <v>-0.05785304640474528</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.05974771363330721</v>
+        <v>0.05974771363330709</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.06774965390354155</v>
+        <v>0.03817019216218411</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3075083364780952</v>
+        <v>-0.3038948911361232</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2066800615769705</v>
+        <v>-0.2108634294496231</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.03836859714287716</v>
+        <v>0.05028838491924727</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1648376696521748</v>
+        <v>-0.1594175285252655</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.03623225452152425</v>
+        <v>-0.05350509938482272</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09569369569062301</v>
+        <v>0.1042000021077986</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1788299674020878</v>
+        <v>-0.1830772679239612</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.0750311738217216</v>
+        <v>-0.06339826246800223</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.578441841984737</v>
+        <v>0.5657548401374777</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.06875288860082522</v>
+        <v>0.07833739683343578</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.189759810885628</v>
+        <v>0.2062146329897515</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.432419901319337</v>
+        <v>0.4449865478716256</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1751339503759412</v>
+        <v>0.1813651692497225</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3054254469195225</v>
+        <v>0.3041780618690162</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4429114738663167</v>
+        <v>0.4329981107089533</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.09023829283632304</v>
+        <v>0.07728985472489061</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1981100195187145</v>
+        <v>0.2032212100150714</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>-0.3869034573318164</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>7.926563002586834</v>
+        <v>7.926563002586828</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.455810121421572</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.150294815302778</v>
+        <v>-1.237788778929974</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.526865253152924</v>
+        <v>-1.587723313466471</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>6.254861126581851</v>
+        <v>6.255431237372306</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.1907595311893892</v>
+        <v>-0.1784097733968676</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.698522622657745</v>
+        <v>-2.705170688389563</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>5.634360022211786</v>
+        <v>5.979983534029413</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.02730442716042892</v>
+        <v>0.04643484118380481</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.564870039143509</v>
+        <v>-1.41531267540532</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>6.625640512495395</v>
+        <v>6.660066962874521</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.595903313235435</v>
+        <v>2.541120636687651</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.277920698582861</v>
+        <v>2.151207202235826</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>10.3332103978547</v>
+        <v>10.4276738856574</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.351313301980554</v>
+        <v>4.143912768356631</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.700211935191287</v>
+        <v>1.657628713856242</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>9.919505911913044</v>
+        <v>10.09177997204935</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.916543341703782</v>
+        <v>2.962793617745755</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.471323594955071</v>
+        <v>1.571023679146595</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>9.567509620339742</v>
+        <v>9.547153290126584</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.01325038291686607</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2714630562447088</v>
+        <v>0.2714630562447086</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.0612333083623897</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.05966490597592503</v>
+        <v>-0.06592519223569866</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.07768743777714557</v>
+        <v>-0.08166504661151822</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3261958523374284</v>
+        <v>0.3260757334358334</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.005756700650504065</v>
+        <v>-0.005596973994057249</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.08822900827705732</v>
+        <v>-0.08819084198618753</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1894565402330945</v>
+        <v>0.1980926423999467</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.001481627865902043</v>
+        <v>0.002150598968500491</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.06390535892933581</v>
+        <v>-0.05810027794121975</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2711352231488655</v>
+        <v>0.273821627459454</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1532722565917971</v>
+        <v>0.1502507497872922</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1307047330613376</v>
+        <v>0.1250477349684296</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6033974745494313</v>
+        <v>0.599263845997805</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1556726880528092</v>
+        <v>0.1452552646352333</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.06054158533476201</v>
+        <v>0.05838649623262763</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3579633933585334</v>
+        <v>0.3618187678244414</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1266236114592982</v>
+        <v>0.1287286152084293</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.06388216740911948</v>
+        <v>0.0684431517203975</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4147559567751444</v>
+        <v>0.4150482257510609</v>
       </c>
     </row>
     <row r="58">
